--- a/doc/comparison.xlsx
+++ b/doc/comparison.xlsx
@@ -131,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -154,8 +154,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -163,29 +283,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,7 +596,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection sqref="A1:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,44 +615,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="4" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -568,145 +700,145 @@
       <c r="P2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.99958100000000005</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.98526899999999995</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>0.98078799999999999</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>0.71208099999999996</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>0.94270200000000004</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>0.91521699999999995</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>0.71409</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>0.85119400000000001</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>0.75386399999999998</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>0.89641599999999999</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>0.55227499999999996</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>0.62441400000000002</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="2">
         <v>0.69866399999999995</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <v>0.886243</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <f>AVERAGE(B3,D3,F3,H3,J3,L3,N3)</f>
         <v>0.80599485714285712</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="9">
         <f>AVERAGE(C3,E3,G3,I3,K3,M3,O3)</f>
         <v>0.83869057142857151</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f>0.98</f>
         <v>0.98</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>0.67</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>0.93</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>0.92</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>0.7</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>0.85</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>0.84</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>0.98</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>0.53</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>0.64</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <v>0.64</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <v>0.86</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <f>AVERAGE(B4,D4,F4,H4,J4,L4,N4)</f>
         <v>0.80285714285714282</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="9">
         <f>AVERAGE(C4,E4,G4,I4,K4,M4,O4)</f>
         <v>0.84571428571428575</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="1"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="9">
